--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>28.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.66</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005209</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴双三角股票A</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005210</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴双三角股票C</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>001983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>中邮低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>001723</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>华商新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001983</t>
+          <t>005413</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮低碳经济灵活配置混合</t>
+          <t>金信民长灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>005209</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>东吴双三角股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>005210</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>东吴双三角股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001723</t>
+          <t>005412</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商新动力灵活配置混合</t>
+          <t>金信民长灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>005412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>金信民长灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>005413</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>金信民长灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.48</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.48</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>10.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +2014,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.58</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +2030,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.18</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2155,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2470,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -2353,14 +2486,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>10.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -2369,14 +2502,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="7">
@@ -2385,13 +2518,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,547 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9507</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5830</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2352</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1082</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001723</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000788</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源中国成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1007,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1058,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3699</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1096,226 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1158</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1380,32 +788,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011058</t>
+          <t>002434</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
+          <t>中银宏利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>101.53</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.47</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7972</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1418,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011328</t>
+          <t>003966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城新能源产业股票A</t>
+          <t>中银润利灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.16</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.49</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4123</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1456,32 +864,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011329</t>
+          <t>002261</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城新能源产业股票C</t>
+          <t>中银宝利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.23</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.49</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2804</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1494,32 +902,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.47</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4327</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1532,36 +940,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>003967</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>中银润利灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1165</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1570,36 +978,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>002435</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>中银宏利灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0900</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1608,36 +1016,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>002262</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>中银宝利灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0530</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1646,6 +1054,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1808,138 +1348,6 @@
       </c>
       <c r="H4" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1382,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2004,32 +1412,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002434</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合A</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>101.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>3.7972</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2042,36 +1450,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003966</t>
+          <t>011328</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合A</t>
+          <t>景顺长城新能源产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>75.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>3.4123</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2080,32 +1488,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002261</t>
+          <t>011329</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合A</t>
+          <t>景顺长城新能源产业股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>50.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31.13</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>2.2804</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2118,32 +1526,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.4327</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2156,36 +1564,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003967</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2194,36 +1602,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002435</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合C</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2232,36 +1640,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002262</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合C</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.13</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0530</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2296,7 +1704,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2326,36 +1734,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.3699</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2364,36 +1772,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>160639</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2407,144 +2005,546 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.09</v>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>10.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.09</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1348,328 +1535,6 @@
       </c>
       <c r="H4" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011058</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7972</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>75.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.4123</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011329</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2804</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011059</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4327</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1734,36 +1599,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>101.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3699</t>
+          <t>3.7972</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1772,36 +1637,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>011328</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>景顺长城新能源产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>75.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1158</t>
+          <t>3.4123</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1810,36 +1675,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>011329</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>景顺长城新能源产业股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>50.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>2.2804</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1848,36 +1713,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.4327</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1886,36 +1751,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1924,36 +1789,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1962,36 +1827,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0530</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2000,6 +1865,328 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
+++ b/数据整理/stocks/A股/创业板/300001-特锐德.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>10.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.58</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,584 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1250,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -726,21 +1293,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -764,21 +1331,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +1354,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -918,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1372,7 +2109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1535,328 +2272,6 @@
       </c>
       <c r="H4" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011058</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7972</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>75.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.4123</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011329</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2804</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011059</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4327</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1921,36 +2336,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>101.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3699</t>
+          <t>3.7972</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1959,36 +2374,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>011328</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>景顺长城新能源产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>75.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1158</t>
+          <t>3.4123</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1997,36 +2412,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>011329</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>景顺长城新能源产业股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>50.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>80.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>2.2804</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2035,36 +2450,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.4327</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2073,36 +2488,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2111,36 +2526,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2149,36 +2564,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0530</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2192,83 +2607,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.38</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9507</t>
+          <t>0.3699</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2276,462 +2691,234 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5830</t>
+          <t>0.1158</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>580001</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴嘉禾优势精选混合</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2352</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>005412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>金信民长灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1082</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001723</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000788</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源中国成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>